--- a/Forms/MyNSAccount - RFC Form.xlsx
+++ b/Forms/MyNSAccount - RFC Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greenjn\Downloads\_working\My NS Account - Operations\My NS Account - Form Updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinhx\Desktop\WorkingFolders\2025-09-09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FD6BAB-3EFF-4399-BA59-47263BB891EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FECA17-DFF6-44E1-9CD5-473FE67E4488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="315" windowWidth="11430" windowHeight="17010" xr2:uid="{DA2C516E-38FA-41D5-A805-320A7FF1D643}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA2C516E-38FA-41D5-A805-320A7FF1D643}"/>
   </bookViews>
   <sheets>
     <sheet name="Connectivity Request Form" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">
 My NS Account - Connectivity Request Form</t>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>LOA 2</t>
+  </si>
+  <si>
+    <t>LOA 2 Attributes - Driver's Licence</t>
+  </si>
+  <si>
+    <t>Client Identifier</t>
   </si>
 </sst>
 </file>
@@ -360,7 +369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +412,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -464,12 +485,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -542,6 +578,21 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,14 +802,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -796,7 +843,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -902,7 +949,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1044,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1052,11 +1099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E605552-92D0-4CA8-9EB4-94C5770B000C}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1285,9 @@
       <c r="B30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -1358,80 +1407,96 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
+    <row r="48" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
     </row>
     <row r="49" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="29"/>
+    </row>
+    <row r="51" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="11"/>
-    </row>
-    <row r="52" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C53" s="11"/>
     </row>
     <row r="54" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C54" s="11"/>
     </row>
     <row r="55" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="14"/>
-    </row>
-    <row r="57" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="9"/>
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
+    <row r="61" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B61" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
+    <row r="62" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
+    <row r="63" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1440,12 +1505,12 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:C10 C13:C16 C19:C22 C25:C27 C30:C31 C34:C41 C50:C55 C58:C59">
+  <conditionalFormatting sqref="C4:C10 C13:C16 C19:C22 C25:C27 C30:C31 C34:C41 C53:C58 C61:C62">
     <cfRule type="notContainsBlanks" dxfId="4" priority="12">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C10 C44:C47">
+  <conditionalFormatting sqref="C4:C10 C44:C48 C50">
     <cfRule type="notContainsBlanks" dxfId="3" priority="11">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
@@ -1460,7 +1525,7 @@
       <formula>NOT(ISERROR(SEARCH("Not required",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D47">
+  <conditionalFormatting sqref="D44:D50">
     <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="Not required">
       <formula>NOT(ISERROR(SEARCH("Not required",D44)))</formula>
     </cfRule>
@@ -1469,9 +1534,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select the Environment" prompt="_x000a_Select 'Non-PROD' for any non-production application. _x000a_For example, Localhost, Development, Test, UAT, etc._x000a__x000a_Select 'Production' for our production environment." sqref="C4" xr:uid="{BCF79915-40EB-48EB-9CFD-CDF7A5D53B19}">
       <formula1>"Non-PROD, Production"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Affiliated Service" prompt="_x000a_If you would like to share a NameID across multiple applications, provide the entityID for the application you wish to be affiliated with. " sqref="C55" xr:uid="{D96F6073-FFB2-42E9-9F90-876506F391CA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Access Denied Message" prompt="_x000a_A custom message can be displayed if the user attempts to access the service with a non-enabled authentication source." sqref="C58" xr:uid="{DFA67497-7720-489F-BC31-6B3ADD4F7C76}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Access Denied Message (French)" prompt="_x000a_A custom message, in French, can be displayed if the user attempts to access the service with a non-enabled authentication source. " sqref="C59" xr:uid="{61008F27-DA85-49F8-B55D-BAAF9844231A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Affiliated Service" prompt="_x000a_If you would like to share a NameID across multiple applications, provide the entityID for the application you wish to be affiliated with. " sqref="C58" xr:uid="{D96F6073-FFB2-42E9-9F90-876506F391CA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Access Denied Message" prompt="_x000a_A custom message can be displayed if the user attempts to access the service with a non-enabled authentication source." sqref="C61" xr:uid="{DFA67497-7720-489F-BC31-6B3ADD4F7C76}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Access Denied Message (French)" prompt="_x000a_A custom message, in French, can be displayed if the user attempts to access the service with a non-enabled authentication source. " sqref="C62" xr:uid="{61008F27-DA85-49F8-B55D-BAAF9844231A}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="First Name" prompt="_x000a_Select 'Yes' for the First Name to be passed to your application after the user authenticates._x000a__x000a_First Name is mandatory for all users." sqref="C34" xr:uid="{04790479-A055-4D97-8C7E-FB6CBA6F06B8}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
@@ -1502,7 +1567,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Health Card - Given Name" prompt="_x000a_Select 'Yes' for the Health Card Given Name to be passed to your application after the user authenticates._x000a__x000a_Health Card Given Name is optional for all users." sqref="C45" xr:uid="{069BB18A-8515-4D1A-84D8-2974D4BB629F}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Health Card - Date of Birth" prompt="_x000a_Select 'Yes' for the Health Card Date of Birth to be passed to your application after the user authenticates._x000a__x000a_Health Card Date of Birth is optional for all users." sqref="C46:C47" xr:uid="{FD759FB7-97F9-4B34-BFAA-18BDCEB90080}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Health Card - Date of Birth" prompt="_x000a_Select 'Yes' for the Health Card Date of Birth to be passed to your application after the user authenticates._x000a__x000a_Health Card Date of Birth is optional for all users." sqref="C46:C48 C50" xr:uid="{FD759FB7-97F9-4B34-BFAA-18BDCEB90080}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Level of Assurance" sqref="C30" xr:uid="{3D418B5A-7C52-4E87-9052-FFF1DA95158E}">
@@ -1511,23 +1576,23 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="_x000a_Please choose from the drop-down list." sqref="C25" xr:uid="{45B9368F-13DF-48AA-AB49-FDFC1B82277A}">
       <formula1>"SAML, OIDC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Disable Native Account Creation" prompt="_x000a_Disabling the account creation button will restrict access to non-invited users." sqref="C53" xr:uid="{D219FB00-991C-483D-A7D3-B40748BB90F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Disable Native Account Creation" prompt="_x000a_Disabling the account creation button will restrict access to non-invited users." sqref="C56" xr:uid="{D219FB00-991C-483D-A7D3-B40748BB90F9}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Invitation Model" prompt="_x000a_Public Access: Open to all My NS Account users._x000a__x000a_Group Access Only: Only open to account holders invited through the Identity Manager._x000a__x000a_Both Public and Group Access: Open to My NS Account account holders, with or without an Identity Manager invitation." sqref="C54" xr:uid="{43FDC566-9E71-4645-AFFB-4D660EBB8BBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Invitation Model" prompt="_x000a_Public Access: Open to all My NS Account users._x000a__x000a_Group Access Only: Only open to account holders invited through the Identity Manager._x000a__x000a_Both Public and Group Access: Open to My NS Account account holders, with or without an Identity Manager invitation." sqref="C57" xr:uid="{43FDC566-9E71-4645-AFFB-4D660EBB8BBF}">
       <formula1>"Public Access, Group Access Only, Both Public and Group Access"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="My NS Account - Native" prompt="_x000a_This will allow users with a My NS Account to access the application." sqref="C50" xr:uid="{23025CBF-5422-4B32-84DF-1A0283259430}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="My NS Account - Native" prompt="_x000a_This will allow users with a My NS Account to access the application." sqref="C53" xr:uid="{23025CBF-5422-4B32-84DF-1A0283259430}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Government AD FS" prompt="_x000a_This will allow user with Government AD accounts to access the application." sqref="C51" xr:uid="{AF49ED4C-BF85-485E-B69A-9918FAF97E6B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Government AD FS" prompt="_x000a_This will allow user with Government AD accounts to access the application." sqref="C54" xr:uid="{AF49ED4C-BF85-485E-B69A-9918FAF97E6B}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Health AD FS" prompt="_x000a_This will allow users with Health AD accounts to access the application." sqref="C52" xr:uid="{5BF61CE9-C57B-4B36-874B-706B1A24B931}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Health AD FS" prompt="_x000a_This will allow users with Health AD accounts to access the application." sqref="C55" xr:uid="{5BF61CE9-C57B-4B36-874B-706B1A24B931}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{5C2406E6-ED24-465B-AD53-8F02C9D415CC}">
-      <formula1>"None, Health Card"</formula1>
+      <formula1>"None, Health Card, Nova Scotia Driver's Licence"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID" prompt="_x000a_Entity ID=SAML _x000a_Client ID=OIDC " sqref="C26" xr:uid="{F9324DA7-F165-486B-80D8-21EE6FAACD96}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Application Type" prompt="_x000a_Select 'Web' if you have a traditional web application that operates on a server (Confidential)._x000a__x000a_Select 'Native' if you have a native application that runs on the user's mobile device, or exists only in a web browser, such as a SPA (Public)." sqref="C27" xr:uid="{DA286724-618C-445D-B50C-E106FED037CC}">
@@ -1544,12 +1609,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1764,15 +1826,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16145780-3408-4614-9F7D-E9BC72CB2CD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4343B8F1-1454-4983-A8D9-69E52EB922A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="d4b32c5d-14cc-49d4-8e33-89dfffb4ed54"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cf40fa3a-ca34-444b-baec-089d050d3c0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1797,18 +1871,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4343B8F1-1454-4983-A8D9-69E52EB922A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16145780-3408-4614-9F7D-E9BC72CB2CD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="d4b32c5d-14cc-49d4-8e33-89dfffb4ed54"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cf40fa3a-ca34-444b-baec-089d050d3c0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>